--- a/Proj1_control_signals.xlsx
+++ b/Proj1_control_signals.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t xml:space="preserve">Instruction</t>
   </si>
@@ -248,12 +248,6 @@
     <t xml:space="preserve">“100000”</t>
   </si>
   <si>
-    <t xml:space="preserve">0010?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 [uses rd]</t>
-  </si>
-  <si>
     <t xml:space="preserve">addiu</t>
   </si>
   <si>
@@ -275,6 +269,9 @@
     <t xml:space="preserve">“001100”</t>
   </si>
   <si>
+    <t xml:space="preserve">1 [use the appropriately extended immediate as source B]</t>
+  </si>
+  <si>
     <t xml:space="preserve">lui</t>
   </si>
   <si>
@@ -333,6 +330,9 @@
   </si>
   <si>
     <t xml:space="preserve">“101011”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">sub</t>
@@ -491,7 +491,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B29" activeCellId="0" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -600,76 +600,163 @@
       <c r="D4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>100011</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
@@ -677,10 +764,25 @@
       <c r="C11" s="1" t="n">
         <v>100111</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
@@ -688,34 +790,94 @@
       <c r="C12" s="1" t="n">
         <v>100110</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>20</v>
@@ -723,57 +885,138 @@
       <c r="C16" s="1" t="n">
         <v>101010</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="F19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -783,8 +1026,23 @@
       <c r="C22" s="1" t="n">
         <v>100010</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
@@ -794,40 +1052,109 @@
       <c r="C23" s="1" t="n">
         <v>100011</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -836,6 +1163,21 @@
       </c>
       <c r="C28" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Proj1_control_signals.xlsx
+++ b/Proj1_control_signals.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t xml:space="preserve">Instruction</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">ALUSrc</t>
   </si>
   <si>
-    <t xml:space="preserve">ALUControl</t>
+    <t xml:space="preserve">ALUControl (Shift | Unsign | add/sub | Shift)</t>
   </si>
   <si>
     <t xml:space="preserve">MemtoReg</t>
@@ -49,7 +49,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">s_DMemWr </t>
     </r>
@@ -60,7 +59,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[MemWrite from text]</t>
     </r>
@@ -72,7 +70,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">s_RegWr </t>
     </r>
@@ -83,7 +80,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[RegWrite from text]</t>
     </r>
@@ -107,7 +103,48 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[addi does NOT read from memory]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[addi does NOT write to memory]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
@@ -118,9 +155,8 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">[use the appropriately extended immediate as source B]</t>
+      <t xml:space="preserve">[addi writes back to a register]</t>
     </r>
   </si>
   <si>
@@ -130,30 +166,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0010 </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[the alu will perform an add of A and B]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0 </t>
     </r>
@@ -164,76 +176,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[addi does NOT read from memory]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0 </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[addi does NOT write to memory]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[addi writes back to a register]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0 </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[addi uses rt as destination register rather than rd]</t>
     </r>
@@ -248,6 +190,9 @@
     <t xml:space="preserve">“100000”</t>
   </si>
   <si>
+    <t xml:space="preserve">“0010”</t>
+  </si>
+  <si>
     <t xml:space="preserve">addiu</t>
   </si>
   <si>
@@ -269,7 +214,7 @@
     <t xml:space="preserve">“001100”</t>
   </si>
   <si>
-    <t xml:space="preserve">1 [use the appropriately extended immediate as source B]</t>
+    <t xml:space="preserve">0 [addi uses rt as destination register rather than rd]</t>
   </si>
   <si>
     <t xml:space="preserve">lui</t>
@@ -314,6 +259,9 @@
     <t xml:space="preserve">sll</t>
   </si>
   <si>
+    <t xml:space="preserve">0 [use shamt]</t>
+  </si>
+  <si>
     <t xml:space="preserve">srl</t>
   </si>
   <si>
@@ -354,6 +302,9 @@
   </si>
   <si>
     <t xml:space="preserve">j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 [use instruction sll 2]</t>
   </si>
   <si>
     <t xml:space="preserve">jal</t>
@@ -378,7 +329,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -401,7 +351,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -491,24 +440,24 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="49.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="39.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="32.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="30.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="45.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="10.83"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -533,7 +482,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -557,7 +506,7 @@
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -567,39 +516,42 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" s="1" t="n">
         <v>0</v>
       </c>
@@ -610,19 +562,22 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E5" s="1" t="n">
+        <v>110</v>
+      </c>
       <c r="F5" s="1" t="n">
         <v>0</v>
       </c>
@@ -633,22 +588,25 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E6" s="1" t="n">
+        <v>110</v>
+      </c>
       <c r="F6" s="1" t="n">
         <v>0</v>
       </c>
@@ -659,19 +617,25 @@
         <v>1</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>100100</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="1" t="n">
         <v>0</v>
       </c>
@@ -682,39 +646,42 @@
         <v>1</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D9" s="1" t="n">
         <v>1</v>
       </c>
@@ -728,12 +695,12 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>100011</v>
@@ -741,6 +708,9 @@
       <c r="D10" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E10" s="1" t="n">
+        <v>110</v>
+      </c>
       <c r="F10" s="1" t="n">
         <v>1</v>
       </c>
@@ -751,15 +721,15 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>100111</v>
@@ -767,6 +737,9 @@
       <c r="D11" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E11" s="1" t="n">
+        <v>11</v>
+      </c>
       <c r="F11" s="1" t="n">
         <v>0</v>
       </c>
@@ -777,15 +750,15 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>100110</v>
@@ -793,6 +766,9 @@
       <c r="D12" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E12" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="F12" s="1" t="n">
         <v>0</v>
       </c>
@@ -803,19 +779,22 @@
         <v>1</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D13" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E13" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="F13" s="1" t="n">
         <v>0</v>
       </c>
@@ -826,19 +805,25 @@
         <v>1</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>100101</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E14" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="F14" s="1" t="n">
         <v>0</v>
       </c>
@@ -849,19 +834,22 @@
         <v>1</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D15" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E15" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="F15" s="1" t="n">
         <v>0</v>
       </c>
@@ -872,15 +860,15 @@
         <v>1</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>101010</v>
@@ -888,6 +876,9 @@
       <c r="D16" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E16" s="1" t="n">
+        <v>1111</v>
+      </c>
       <c r="F16" s="1" t="n">
         <v>0</v>
       </c>
@@ -898,19 +889,22 @@
         <v>1</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D17" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E17" s="1" t="n">
+        <v>1111</v>
+      </c>
       <c r="F17" s="1" t="n">
         <v>0</v>
       </c>
@@ -920,20 +914,23 @@
       <c r="H17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I17" s="1" t="n">
-        <v>1</v>
+      <c r="I17" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F18" s="1" t="n">
         <v>0</v>
       </c>
@@ -944,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -952,11 +949,14 @@
         <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F19" s="1" t="n">
         <v>0</v>
       </c>
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -975,11 +975,14 @@
         <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F20" s="1" t="n">
         <v>0</v>
       </c>
@@ -990,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1003,11 +1006,14 @@
       <c r="D21" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E21" s="1" t="n">
+        <v>110</v>
+      </c>
       <c r="F21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
@@ -1021,7 +1027,7 @@
         <v>51</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>100010</v>
@@ -1029,6 +1035,9 @@
       <c r="D22" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E22" s="1" t="n">
+        <v>1110</v>
+      </c>
       <c r="F22" s="1" t="n">
         <v>0</v>
       </c>
@@ -1039,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1047,7 +1056,7 @@
         <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>100011</v>
@@ -1055,6 +1064,9 @@
       <c r="D23" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E23" s="1" t="n">
+        <v>1110</v>
+      </c>
       <c r="F23" s="1" t="n">
         <v>0</v>
       </c>
@@ -1065,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1078,6 +1090,9 @@
       <c r="D24" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E24" s="1" t="n">
+        <v>1110</v>
+      </c>
       <c r="F24" s="1" t="n">
         <v>0</v>
       </c>
@@ -1101,6 +1116,9 @@
       <c r="D25" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E25" s="1" t="n">
+        <v>1110</v>
+      </c>
       <c r="F25" s="1" t="n">
         <v>0</v>
       </c>
@@ -1121,6 +1139,9 @@
       <c r="B26" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="D26" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="F26" s="1" t="n">
         <v>0</v>
       </c>
@@ -1136,11 +1157,14 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="D27" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="F27" s="1" t="n">
         <v>0</v>
       </c>
@@ -1156,13 +1180,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>0</v>

--- a/Proj1_control_signals.xlsx
+++ b/Proj1_control_signals.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t xml:space="preserve">Instruction</t>
   </si>
@@ -49,6 +49,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">s_DMemWr </t>
     </r>
@@ -59,6 +60,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[MemWrite from text]</t>
     </r>
@@ -70,6 +72,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">s_RegWr </t>
     </r>
@@ -80,6 +83,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[RegWrite from text]</t>
     </r>
@@ -88,6 +92,18 @@
     <t xml:space="preserve">RegDst</t>
   </si>
   <si>
+    <t xml:space="preserve">Branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign Ext</t>
+  </si>
+  <si>
     <t xml:space="preserve">addi</t>
   </si>
   <si>
@@ -97,90 +113,6 @@
     <t xml:space="preserve">"------"</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0 </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[addi does NOT read from memory]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0 </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[addi does NOT write to memory]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[addi writes back to a register]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0 </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[addi uses rt as destination register rather than rd]</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">add</t>
   </si>
   <si>
@@ -208,15 +140,15 @@
     <t xml:space="preserve">and</t>
   </si>
   <si>
+    <t xml:space="preserve">“0000”</t>
+  </si>
+  <si>
     <t xml:space="preserve">andi</t>
   </si>
   <si>
     <t xml:space="preserve">“001100”</t>
   </si>
   <si>
-    <t xml:space="preserve">0 [addi uses rt as destination register rather than rd]</t>
-  </si>
-  <si>
     <t xml:space="preserve">lui</t>
   </si>
   <si>
@@ -241,6 +173,9 @@
     <t xml:space="preserve">or</t>
   </si>
   <si>
+    <t xml:space="preserve">“0001”</t>
+  </si>
+  <si>
     <t xml:space="preserve">ori</t>
   </si>
   <si>
@@ -278,9 +213,6 @@
   </si>
   <si>
     <t xml:space="preserve">“101011”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">sub</t>
@@ -329,6 +261,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -351,6 +284,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -412,7 +346,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -440,7 +374,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E26" activeCellId="0" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="N32" activeCellId="0" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -448,7 +382,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.32"/>
@@ -504,17 +438,28 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>1</v>
@@ -522,19 +467,30 @@
       <c r="E3" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="4"/>
+      <c r="F3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -564,6 +520,18 @@
       <c r="I4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -572,6 +540,9 @@
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" s="1" t="n">
         <v>1</v>
       </c>
@@ -588,6 +559,18 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -619,6 +602,18 @@
       <c r="I6" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -633,8 +628,8 @@
       <c r="D7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <v>0</v>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>0</v>
@@ -646,22 +641,37 @@
         <v>1</v>
       </c>
       <c r="I7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" s="1" t="n">
         <v>0</v>
       </c>
@@ -671,8 +681,20 @@
       <c r="H8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>28</v>
+      <c r="I8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,9 +704,15 @@
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D9" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E9" s="1" t="n">
+        <v>1011</v>
+      </c>
       <c r="F9" s="1" t="n">
         <v>0</v>
       </c>
@@ -695,6 +723,18 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -705,6 +745,9 @@
       <c r="B10" s="1" t="n">
         <v>100011</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D10" s="1" t="n">
         <v>1</v>
       </c>
@@ -721,6 +764,18 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -752,6 +807,18 @@
       <c r="I11" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -781,6 +848,18 @@
       <c r="I12" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -789,6 +868,9 @@
       <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D13" s="1" t="n">
         <v>1</v>
       </c>
@@ -805,6 +887,18 @@
         <v>1</v>
       </c>
       <c r="I13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -821,8 +915,8 @@
       <c r="D14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="1" t="n">
-        <v>1</v>
+      <c r="E14" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>0</v>
@@ -834,22 +928,37 @@
         <v>1</v>
       </c>
       <c r="I14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="F15" s="1" t="n">
         <v>0</v>
       </c>
@@ -860,12 +969,24 @@
         <v>1</v>
       </c>
       <c r="I15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
@@ -891,13 +1012,28 @@
       <c r="I16" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>1</v>
@@ -914,13 +1050,25 @@
       <c r="H17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>28</v>
+      <c r="I17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
@@ -929,7 +1077,10 @@
         <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>111</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>0</v>
@@ -942,20 +1093,35 @@
       </c>
       <c r="I18" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>1000</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>0</v>
@@ -968,20 +1134,35 @@
       </c>
       <c r="I19" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>1001</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>0</v>
@@ -994,14 +1175,29 @@
       </c>
       <c r="I20" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>1</v>
@@ -1018,8 +1214,20 @@
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>50</v>
+      <c r="I21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1050,6 +1258,18 @@
       <c r="I22" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
@@ -1079,6 +1299,18 @@
       <c r="I23" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
@@ -1087,6 +1319,9 @@
       <c r="B24" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D24" s="1" t="n">
         <v>1</v>
       </c>
@@ -1102,8 +1337,20 @@
       <c r="H24" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>50</v>
+      <c r="I24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1113,6 +1360,9 @@
       <c r="B25" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D25" s="1" t="n">
         <v>1</v>
       </c>
@@ -1128,8 +1378,20 @@
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>50</v>
+      <c r="I25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1137,11 +1399,17 @@
         <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="E26" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F26" s="1" t="n">
         <v>0</v>
       </c>
@@ -1151,8 +1419,20 @@
       <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>50</v>
+      <c r="I26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,11 +1440,17 @@
         <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="E27" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F27" s="1" t="n">
         <v>0</v>
       </c>
@@ -1174,8 +1460,20 @@
       <c r="H27" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>50</v>
+      <c r="I27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1191,6 +1489,9 @@
       <c r="D28" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E28" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F28" s="1" t="n">
         <v>0</v>
       </c>
@@ -1200,8 +1501,20 @@
       <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>50</v>
+      <c r="I28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Proj1_control_signals.xlsx
+++ b/Proj1_control_signals.xlsx
@@ -374,7 +374,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N32" activeCellId="0" sqref="N32"/>
+      <selection pane="bottomRight" activeCell="Q44" activeCellId="0" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Proj1_control_signals.xlsx
+++ b/Proj1_control_signals.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
   <si>
     <t xml:space="preserve">Instruction</t>
   </si>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">Jump</t>
   </si>
   <si>
-    <t xml:space="preserve">JAL</t>
+    <t xml:space="preserve">JR</t>
   </si>
   <si>
     <t xml:space="preserve">Sign Ext</t>
@@ -113,6 +113,9 @@
     <t xml:space="preserve">"------"</t>
   </si>
   <si>
+    <t xml:space="preserve">“0110”</t>
+  </si>
+  <si>
     <t xml:space="preserve">add</t>
   </si>
   <si>
@@ -120,9 +123,6 @@
   </si>
   <si>
     <t xml:space="preserve">“100000”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“0010”</t>
   </si>
   <si>
     <t xml:space="preserve">addiu</t>
@@ -374,7 +374,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q44" activeCellId="0" sqref="Q44"/>
+      <selection pane="bottomRight" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -464,8 +464,8 @@
       <c r="D3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>110</v>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>0</v>
@@ -494,19 +494,19 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>24</v>
@@ -620,7 +620,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>100100</v>
@@ -784,7 +784,7 @@
         <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>100111</v>
@@ -825,7 +825,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>100110</v>
@@ -907,7 +907,7 @@
         <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>100101</v>
@@ -989,7 +989,7 @@
         <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>101010</v>
@@ -1071,10 +1071,10 @@
         <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>44</v>
@@ -1112,7 +1112,7 @@
         <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>46</v>
@@ -1153,7 +1153,7 @@
         <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>48</v>
@@ -1235,7 +1235,7 @@
         <v>51</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>100010</v>
@@ -1276,7 +1276,7 @@
         <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>100011</v>
@@ -1367,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>60</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>61</v>
